--- a/inst/extdata/example_96_NA.xlsx
+++ b/inst/extdata/example_96_NA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/plateTransformR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D008B4A-9864-5749-8F82-32B780EC1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DCD2F-A9B0-2146-A22E-847AA68956D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="regular-elisa-template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -925,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
